--- a/_experimentos/Análise01/Experimentos.xlsx
+++ b/_experimentos/Análise01/Experimentos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Base de dados</t>
   </si>
@@ -58,13 +58,34 @@
     <t>Classificador</t>
   </si>
   <si>
-    <t>Naive Bayes</t>
-  </si>
-  <si>
-    <t>Padrão do MATLAB</t>
-  </si>
-  <si>
     <t>Configurações</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>EliteCount_Data</t>
+  </si>
+  <si>
+    <t>MaxGenerations_Data</t>
+  </si>
+  <si>
+    <t>PopulationSize_Data</t>
+  </si>
+  <si>
+    <t>generations</t>
+  </si>
+  <si>
+    <t>Classificação</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>(CODE)</t>
   </si>
 </sst>
 </file>
@@ -117,7 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -133,6 +154,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -485,7 +513,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -495,25 +523,78 @@
   <cols>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>92</v>
+      </c>
+      <c r="H3">
+        <v>0.1531279178338</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_experimentos/Análise01/Experimentos.xlsx
+++ b/_experimentos/Análise01/Experimentos.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Base de dados" sheetId="1" r:id="rId1"/>
-    <sheet name="Experimentos 01" sheetId="2" r:id="rId2"/>
+    <sheet name="Experimentos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Base de dados</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>(CODE)</t>
+  </si>
+  <si>
+    <t>Experimentos</t>
+  </si>
+  <si>
+    <t>DEFAULT (with parallel)</t>
   </si>
 </sst>
 </file>
@@ -138,7 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -160,6 +166,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -445,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -513,23 +522,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="B1" s="7" t="s">
         <v>19</v>
       </c>
@@ -544,7 +558,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
@@ -565,7 +580,10 @@
       </c>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -588,11 +606,32 @@
         <v>0.1531279178338</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/_experimentos/Análise01/Experimentos.xlsx
+++ b/_experimentos/Análise01/Experimentos.xlsx
@@ -525,7 +525,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,6 +625,12 @@
       <c r="F4">
         <v>20</v>
       </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>0.17740429505135399</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/_experimentos/Análise01/Experimentos.xlsx
+++ b/_experimentos/Análise01/Experimentos.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base de dados" sheetId="1" r:id="rId1"/>
     <sheet name="Experimentos" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Base de dados</t>
   </si>
@@ -92,6 +93,21 @@
   </si>
   <si>
     <t>DEFAULT (with parallel)</t>
+  </si>
+  <si>
+    <t>Ajustes na seleção para garantir a seleção do melhor</t>
+  </si>
+  <si>
+    <t>Seleção padrão MATLAB</t>
+  </si>
+  <si>
+    <t>(CODE with parallel)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Redução</t>
   </si>
 </sst>
 </file>
@@ -144,7 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -162,6 +178,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -522,10 +541,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,29 +556,31 @@
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
@@ -578,9 +599,12 @@
       <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -602,11 +626,14 @@
       <c r="G3">
         <v>92</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3">
         <v>0.1531279178338</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -628,18 +655,289 @@
       <c r="G4">
         <v>100</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
         <v>0.17740429505135399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>0.134920634920635</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:BQ4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>1</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <f>SUM(2:2)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <f>68-B3</f>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/_experimentos/Análise01/Experimentos.xlsx
+++ b/_experimentos/Análise01/Experimentos.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Base de dados" sheetId="1" r:id="rId1"/>
     <sheet name="Experimentos" sheetId="2" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="3" r:id="rId3"/>
+    <sheet name="Melhor resultado" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Base de dados</t>
   </si>
@@ -104,10 +104,7 @@
     <t>(CODE with parallel)</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Redução</t>
+    <t>Repetição</t>
   </si>
 </sst>
 </file>
@@ -705,15 +702,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BQ4"/>
+  <dimension ref="A1:BQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
       <c r="B2">
         <v>1</v>
       </c>
@@ -920,21 +925,8 @@
       </c>
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3">
-        <f>SUM(2:2)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4">
-        <f>68-B3</f>
-        <v>16</v>
+      <c r="A3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/_experimentos/Análise01/Experimentos.xlsx
+++ b/_experimentos/Análise01/Experimentos.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base de dados" sheetId="1" r:id="rId1"/>
     <sheet name="Experimentos" sheetId="2" r:id="rId2"/>
     <sheet name="Melhor resultado" sheetId="3" r:id="rId3"/>
+    <sheet name="Redução" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
   <si>
     <t>Base de dados</t>
   </si>
@@ -104,7 +105,217 @@
     <t>(CODE with parallel)</t>
   </si>
   <si>
+    <t>Selecionados</t>
+  </si>
+  <si>
     <t>Repetição</t>
+  </si>
+  <si>
+    <t>holdtime1</t>
+  </si>
+  <si>
+    <t>holdtime2</t>
+  </si>
+  <si>
+    <t>holdtime3</t>
+  </si>
+  <si>
+    <t>holdtime4</t>
+  </si>
+  <si>
+    <t>holdtime5</t>
+  </si>
+  <si>
+    <t>holdtime6</t>
+  </si>
+  <si>
+    <t>holdtime7</t>
+  </si>
+  <si>
+    <t>holdtime8</t>
+  </si>
+  <si>
+    <t>holdtime9</t>
+  </si>
+  <si>
+    <t>holdtime10</t>
+  </si>
+  <si>
+    <t>holdtime11</t>
+  </si>
+  <si>
+    <t>holdtime12</t>
+  </si>
+  <si>
+    <t>holdtime13</t>
+  </si>
+  <si>
+    <t>holdtime14</t>
+  </si>
+  <si>
+    <t>downdown1</t>
+  </si>
+  <si>
+    <t>downdown2</t>
+  </si>
+  <si>
+    <t>downdown3</t>
+  </si>
+  <si>
+    <t>downdown4</t>
+  </si>
+  <si>
+    <t>downdown5</t>
+  </si>
+  <si>
+    <t>downdown6</t>
+  </si>
+  <si>
+    <t>downdown7</t>
+  </si>
+  <si>
+    <t>downdown8</t>
+  </si>
+  <si>
+    <t>downdown9</t>
+  </si>
+  <si>
+    <t>downdown10</t>
+  </si>
+  <si>
+    <t>downdown11</t>
+  </si>
+  <si>
+    <t>downdown12</t>
+  </si>
+  <si>
+    <t>downdown13</t>
+  </si>
+  <si>
+    <t>updown1</t>
+  </si>
+  <si>
+    <t>updown2</t>
+  </si>
+  <si>
+    <t>updown3</t>
+  </si>
+  <si>
+    <t>updown4</t>
+  </si>
+  <si>
+    <t>updown5</t>
+  </si>
+  <si>
+    <t>updown6</t>
+  </si>
+  <si>
+    <t>updown7</t>
+  </si>
+  <si>
+    <t>updown8</t>
+  </si>
+  <si>
+    <t>updown9</t>
+  </si>
+  <si>
+    <t>updown10</t>
+  </si>
+  <si>
+    <t>updown11</t>
+  </si>
+  <si>
+    <t>updown12</t>
+  </si>
+  <si>
+    <t>updown13</t>
+  </si>
+  <si>
+    <t>pressure1</t>
+  </si>
+  <si>
+    <t>pressure2</t>
+  </si>
+  <si>
+    <t>pressure3</t>
+  </si>
+  <si>
+    <t>pressure4</t>
+  </si>
+  <si>
+    <t>pressure5</t>
+  </si>
+  <si>
+    <t>pressure6</t>
+  </si>
+  <si>
+    <t>pressure7</t>
+  </si>
+  <si>
+    <t>pressure8</t>
+  </si>
+  <si>
+    <t>pressure9</t>
+  </si>
+  <si>
+    <t>pressure10</t>
+  </si>
+  <si>
+    <t>pressure11</t>
+  </si>
+  <si>
+    <t>pressure12</t>
+  </si>
+  <si>
+    <t>pressure13</t>
+  </si>
+  <si>
+    <t>pressure14</t>
+  </si>
+  <si>
+    <t>fingerarea1</t>
+  </si>
+  <si>
+    <t>fingerarea2</t>
+  </si>
+  <si>
+    <t>fingerarea3</t>
+  </si>
+  <si>
+    <t>fingerarea4</t>
+  </si>
+  <si>
+    <t>fingerarea5</t>
+  </si>
+  <si>
+    <t>fingerarea6</t>
+  </si>
+  <si>
+    <t>fingerarea7</t>
+  </si>
+  <si>
+    <t>fingerarea8</t>
+  </si>
+  <si>
+    <t>fingerarea9</t>
+  </si>
+  <si>
+    <t>fingerarea10</t>
+  </si>
+  <si>
+    <t>fingerarea11</t>
+  </si>
+  <si>
+    <t>fingerarea12</t>
+  </si>
+  <si>
+    <t>fingerarea13</t>
+  </si>
+  <si>
+    <t>fingerarea14</t>
+  </si>
+  <si>
+    <t>Redução (%)</t>
   </si>
 </sst>
 </file>
@@ -470,14 +681,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H3"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -538,10 +750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,6 +900,26 @@
         <v>0.134920634920635</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>86</v>
+      </c>
+      <c r="I6">
+        <v>0.13538748832866501</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
@@ -704,15 +936,232 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="41" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="50" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="55" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="64" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="69" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>27</v>
+    <row r="1" spans="1:69" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="BP1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ1" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.25">
@@ -927,6 +1376,53 @@
     <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'Melhor resultado'!A2</f>
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <f>SUM('Melhor resultado'!B2:BQ2)</f>
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <f>100-(100*B2/68)</f>
+        <v>23.529411764705884</v>
       </c>
     </row>
   </sheetData>

--- a/_experimentos/Análise01/Experimentos.xlsx
+++ b/_experimentos/Análise01/Experimentos.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
   <si>
     <t>Base de dados</t>
   </si>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t>Redução (%)</t>
+  </si>
+  <si>
+    <t>(CODE with parallel - both)</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
   </si>
 </sst>
 </file>
@@ -750,26 +756,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
@@ -783,12 +790,13 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="5" t="s">
         <v>11</v>
@@ -803,17 +811,20 @@
         <v>16</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -829,20 +840,20 @@
       <c r="E3">
         <v>100</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>20</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>92</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.1531279178338</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -858,20 +869,20 @@
       <c r="E4">
         <v>100</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>20</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>100</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.17740429505135399</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -887,44 +898,79 @@
       <c r="E5">
         <v>100</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>20</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>100</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>24</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.134920634920635</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
         <v>200</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>20</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>86</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.13538748832866501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>77</v>
+      </c>
+      <c r="J7">
+        <v>0.135854341736695</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/_experimentos/Análise01/Experimentos.xlsx
+++ b/_experimentos/Análise01/Experimentos.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
   <si>
     <t>Base de dados</t>
   </si>
@@ -756,7 +756,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -964,6 +964,35 @@
       </c>
       <c r="J7">
         <v>0.135854341736695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>200</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>98</v>
+      </c>
+      <c r="J8">
+        <v>0.12464985994397799</v>
       </c>
     </row>
   </sheetData>

--- a/_experimentos/Análise01/Experimentos.xlsx
+++ b/_experimentos/Análise01/Experimentos.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
   <si>
     <t>Base de dados</t>
   </si>
@@ -756,10 +756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,9 +976,6 @@
       <c r="C8" t="s">
         <v>98</v>
       </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
       <c r="E8">
         <v>200</v>
       </c>
@@ -993,6 +990,32 @@
       </c>
       <c r="J8">
         <v>0.12464985994397799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>94</v>
+      </c>
+      <c r="J9">
+        <v>0.13118580765639601</v>
       </c>
     </row>
   </sheetData>

--- a/_experimentos/Análise01/Experimentos.xlsx
+++ b/_experimentos/Análise01/Experimentos.xlsx
@@ -21,6 +21,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Confirmar no código</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
   <si>
@@ -328,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,13 +386,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -374,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,6 +465,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -755,11 +818,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +897,7 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <v>5</v>
       </c>
       <c r="E3">
@@ -863,7 +926,7 @@
       <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <v>5</v>
       </c>
       <c r="E4">
@@ -892,7 +955,7 @@
       <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="11">
         <v>5</v>
       </c>
       <c r="E5">
@@ -921,7 +984,7 @@
       <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="11">
         <v>5</v>
       </c>
       <c r="E6">
@@ -947,7 +1010,7 @@
       <c r="C7" t="s">
         <v>98</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="11">
         <v>5</v>
       </c>
       <c r="E7">
@@ -1017,6 +1080,14 @@
       <c r="J9">
         <v>0.13118580765639601</v>
       </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1027,6 +1098,7 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/_experimentos/Análise01/Experimentos.xlsx
+++ b/_experimentos/Análise01/Experimentos.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
   <si>
     <t>Base de dados</t>
   </si>
@@ -456,6 +456,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,8 +467,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,27 +840,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
@@ -885,7 +885,7 @@
       <c r="I2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -897,7 +897,7 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>5</v>
       </c>
       <c r="E3">
@@ -926,7 +926,7 @@
       <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>5</v>
       </c>
       <c r="E4">
@@ -955,7 +955,7 @@
       <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>5</v>
       </c>
       <c r="E5">
@@ -984,7 +984,7 @@
       <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>5</v>
       </c>
       <c r="E6">
@@ -1010,7 +1010,7 @@
       <c r="C7" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>5</v>
       </c>
       <c r="E7">
@@ -1085,9 +1085,30 @@
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10">
+        <v>200</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>150</v>
+      </c>
+      <c r="H10">
+        <v>93</v>
+      </c>
+      <c r="J10">
+        <v>0.122315592903828</v>
+      </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
+      <c r="B17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/_experimentos/Análise01/Experimentos.xlsx
+++ b/_experimentos/Análise01/Experimentos.xlsx
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,6 +1105,11 @@
       </c>
       <c r="J10">
         <v>0.122315592903828</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">

--- a/_experimentos/Análise01/Experimentos.xlsx
+++ b/_experimentos/Análise01/Experimentos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,6 +1110,21 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
+      </c>
+      <c r="E11">
+        <v>200</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
+      </c>
+      <c r="H11">
+        <v>82</v>
+      </c>
+      <c r="J11">
+        <v>0.126050420168067</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">

--- a/_experimentos/Análise01/Experimentos.xlsx
+++ b/_experimentos/Análise01/Experimentos.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
   <si>
     <t>Base de dados</t>
   </si>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,6 +1110,12 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
       </c>
       <c r="E11">
         <v>200</v>
